--- a/Datenbanktabellen.xlsx
+++ b/Datenbanktabellen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I518189\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I518189\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FBE29-409B-4B5F-8C9C-A963020CC9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BAA87-045F-4ABA-83B6-70B9260C0ADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63D82306-8207-464B-9686-A11857ECA2C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63D82306-8207-464B-9686-A11857ECA2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Benutzer </t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>Benutzername (Varchar)</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>offerID(int)</t>
+  </si>
+  <si>
+    <t>farmerID(int) REFERENCES farmers(farmerID)</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>productID(int)</t>
+  </si>
+  <si>
+    <t>productName(varchar(50))</t>
+  </si>
+  <si>
+    <t>ProductsInOffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productID(int) REFERENCES Products(productID) </t>
+  </si>
+  <si>
+    <t>offerID(int) REFERENCES Offers(offerID)</t>
   </si>
 </sst>
 </file>
@@ -86,9 +113,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E4C65-0C10-4292-80E7-BFCD151AF38C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +469,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Datenbanktabellen.xlsx
+++ b/Datenbanktabellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I518189\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BAA87-045F-4ABA-83B6-70B9260C0ADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC828025-D659-4BEA-A36B-2395F630609C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63D82306-8207-464B-9686-A11857ECA2C2}"/>
   </bookViews>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Benutzer </t>
-  </si>
-  <si>
-    <t>istBauer (boolean)</t>
-  </si>
-  <si>
-    <t>Passwort (Varchar)</t>
-  </si>
-  <si>
-    <t>Benutzername (Varchar)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Offers</t>
   </si>
@@ -51,9 +39,6 @@
     <t>offerID(int)</t>
   </si>
   <si>
-    <t>farmerID(int) REFERENCES farmers(farmerID)</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
@@ -70,6 +55,27 @@
   </si>
   <si>
     <t>offerID(int) REFERENCES Offers(offerID)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>userID (Varchar)</t>
+  </si>
+  <si>
+    <t>password (Varchar)</t>
+  </si>
+  <si>
+    <t>isFarmer (int)</t>
+  </si>
+  <si>
+    <t>userID(VARCHAR) REFERENCES user(userID)</t>
+  </si>
+  <si>
+    <t>distance(int)</t>
+  </si>
+  <si>
+    <t>date(varchar)</t>
   </si>
 </sst>
 </file>
@@ -439,73 +445,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E4C65-0C10-4292-80E7-BFCD151AF38C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
